--- a/PESO/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/PESO/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64526C98-10D2-4D2E-BBCE-B098D5FB8CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046074B5-C14A-4EB6-A78D-01CE2ED3A5D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="352" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="352" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expolugsalida" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Peso en Kilos Brutos</t>
   </si>
@@ -258,6 +258,24 @@
   <si>
     <t>Total general</t>
   </si>
+  <si>
+    <t>CONSTITUCION</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE ATACAMA</t>
+  </si>
+  <si>
+    <t>Octubre - 2020</t>
+  </si>
+  <si>
+    <t>Noviembre - 2020</t>
+  </si>
+  <si>
+    <t>Diciembre - 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +319,25 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -477,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -498,6 +535,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,28 +559,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -547,7 +661,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -569,14 +683,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -833,13 +939,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -849,6 +948,21 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -868,19 +982,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94EE7630-EC2B-4AE9-9384-13DC97CC03C1}" name="exp_salida_peso_2020" displayName="exp_salida_peso_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:J56" xr:uid="{F21DA063-6D02-418D-90BE-1A42072DA078}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3EF7CFB3-F37C-49BD-AC8F-E39326F7E79E}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4161A101-59E7-47B2-8C73-83C9DDBA59A3}" name="Enero - 2020" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{89A9763F-C475-4431-9A26-9F72A47E734F}" name="Febrero - 2020" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0248664C-FDD7-4FAD-98B8-0CA5ACC71185}" name="Marzo - 2020" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D4FA8BE2-694F-4AFB-B826-8AE41D56892C}" name="Abril - 2020" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A6972B52-4DC6-4B29-A008-0644F2B65A8D}" name="Mayo - 2020" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F3E34ED2-E48B-4AC8-A48B-8AB023A84BD3}" name="Junio - 2020" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{177C84AA-C568-4D32-941B-EDE51A658D77}" name="Julio - 2020" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{502AECB9-2555-4755-9277-D85D2FBA3FB6}" name="Agosto - 2020" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{76311C1D-A9FF-4CDA-A8FE-40E449531047}" name="Septiembre - 2020" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94EE7630-EC2B-4AE9-9384-13DC97CC03C1}" name="exp_salida_peso_2020" displayName="exp_salida_peso_2020" ref="A1:M59" totalsRowShown="0" headerRowDxfId="3" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M59" xr:uid="{F21DA063-6D02-418D-90BE-1A42072DA078}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{3EF7CFB3-F37C-49BD-AC8F-E39326F7E79E}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4161A101-59E7-47B2-8C73-83C9DDBA59A3}" name="Enero - 2020" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{89A9763F-C475-4431-9A26-9F72A47E734F}" name="Febrero - 2020" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0248664C-FDD7-4FAD-98B8-0CA5ACC71185}" name="Marzo - 2020" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D4FA8BE2-694F-4AFB-B826-8AE41D56892C}" name="Abril - 2020" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A6972B52-4DC6-4B29-A008-0644F2B65A8D}" name="Mayo - 2020" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F3E34ED2-E48B-4AC8-A48B-8AB023A84BD3}" name="Junio - 2020" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{177C84AA-C568-4D32-941B-EDE51A658D77}" name="Julio - 2020" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{502AECB9-2555-4755-9277-D85D2FBA3FB6}" name="Agosto - 2020" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{76311C1D-A9FF-4CDA-A8FE-40E449531047}" name="Septiembre - 2020" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{3C80FB5C-B03D-4CEC-B110-CBFD1540C2BB}" name="Octubre - 2020" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{E31A2A6D-3041-40A7-9241-2A4BC895D9A4}" name="Noviembre - 2020" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{2BCF758A-1D25-4CF5-A6FC-43D269D84BCD}" name="Diciembre - 2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1158,52 +1275,52 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="13" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1234,9 +1351,9 @@
       <c r="K4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>59</v>
       </c>
@@ -1271,7 +1388,7 @@
         <v>409434410.08000004</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1423,7 @@
         <v>1789632</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1458,7 @@
         <v>143945</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1493,7 @@
         <v>351469.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +1528,7 @@
         <v>13667</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1563,7 @@
         <v>73720</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1598,7 @@
         <v>1089016538.3199999</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1633,7 @@
         <v>138071362.53</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1668,7 @@
         <v>859926113.24000001</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1703,7 @@
         <v>906014138.35000002</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1738,7 @@
         <v>5834718846.3299999</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1656,7 +1773,7 @@
         <v>2951076691.1999998</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>60</v>
       </c>
@@ -1691,7 +1808,7 @@
         <v>8040670.7999999989</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
@@ -1726,7 +1843,7 @@
         <v>31751659.640000001</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
@@ -1761,7 +1878,7 @@
         <v>22136521</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +1913,7 @@
         <v>135937</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
@@ -1831,7 +1948,7 @@
         <v>44024618.639999986</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1866,7 +1983,7 @@
         <v>59278882.920000002</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +2018,7 @@
         <v>101439030.03999999</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1936,7 +2053,7 @@
         <v>325053683.04000002</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
@@ -1971,7 +2088,7 @@
         <v>4740071793.0699997</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
@@ -2006,7 +2123,7 @@
         <v>869922500.5</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
@@ -2041,7 +2158,7 @@
         <v>513692767.01000023</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2076,7 +2193,7 @@
         <v>1969257282</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
@@ -2111,7 +2228,7 @@
         <v>4271947925.75</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
@@ -2146,7 +2263,7 @@
         <v>12661681.719999999</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>33</v>
       </c>
@@ -2181,7 +2298,7 @@
         <v>275300859.19</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2333,7 @@
         <v>22348319.150000002</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2368,7 @@
         <v>9575.2800000000007</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
@@ -2286,7 +2403,7 @@
         <v>2663810522.5499997</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
@@ -2321,7 +2438,7 @@
         <v>1043417870</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
@@ -2391,7 +2508,7 @@
         <v>43649855.219999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
@@ -2426,7 +2543,7 @@
         <v>534560843</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
@@ -2461,7 +2578,7 @@
         <v>27949023.569999997</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>41</v>
       </c>
@@ -2496,7 +2613,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>66</v>
       </c>
@@ -2531,7 +2648,7 @@
         <v>49909136.660000004</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2683,7 @@
         <v>3234078660</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
@@ -2601,7 +2718,7 @@
         <v>3118640000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2636,7 +2753,7 @@
         <v>5010511.24</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
@@ -2671,7 +2788,7 @@
         <v>65627120.800000012</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
@@ -2706,7 +2823,7 @@
         <v>1890044466.1899998</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2741,7 +2858,7 @@
         <v>412395707.39999998</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2893,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2811,7 +2928,7 @@
         <v>14030334.65</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
@@ -2846,7 +2963,7 @@
         <v>54866469.219999999</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>51</v>
       </c>
@@ -2881,7 +2998,7 @@
         <v>4210639716.8300033</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>67</v>
       </c>
@@ -2916,7 +3033,7 @@
         <v>45018.28</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>52</v>
       </c>
@@ -2951,7 +3068,7 @@
         <v>1567426259.9099998</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>53</v>
       </c>
@@ -2986,7 +3103,7 @@
         <v>177843960.95000002</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
@@ -3021,7 +3138,7 @@
         <v>797915870.79999995</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
@@ -3056,7 +3173,7 @@
         <v>2234454168.9899998</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>55</v>
       </c>
@@ -3091,7 +3208,7 @@
         <v>1458876817.1900001</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>56</v>
       </c>
@@ -3126,7 +3243,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
@@ -3161,7 +3278,7 @@
         <v>886197.3</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3313,7 @@
         <v>49063793277.050011</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
@@ -3213,62 +3330,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5581E7C-2117-4871-B006-A7C16DB24905}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="42.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="K1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="11">
         <v>72903248.459999993</v>
       </c>
       <c r="C2" s="11">
-        <v>68002041.290000007</v>
+        <v>68001793.290000007</v>
       </c>
       <c r="D2" s="11">
         <v>61875257.020000003</v>
@@ -3286,14 +3413,23 @@
         <v>31196201.680000026</v>
       </c>
       <c r="I2" s="11">
-        <v>29514898.620000001</v>
-      </c>
-      <c r="J2" s="18">
-        <v>25524605.930000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+        <v>29518524.239999995</v>
+      </c>
+      <c r="J2" s="13">
+        <v>25555173.750000026</v>
+      </c>
+      <c r="K2" s="26">
+        <v>30781373.43000003</v>
+      </c>
+      <c r="L2" s="26">
+        <v>35370987.809999973</v>
+      </c>
+      <c r="M2" s="26">
+        <v>47643469.959999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="11">
@@ -3320,12 +3456,21 @@
       <c r="I3" s="11">
         <v>1008</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="13">
         <v>6240</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>53672</v>
+      </c>
+      <c r="M3" s="11">
+        <v>68105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="11">
@@ -3352,12 +3497,21 @@
       <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="11">
@@ -3384,12 +3538,21 @@
       <c r="I5" s="11">
         <v>9527</v>
       </c>
-      <c r="J5" s="18">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="13">
+        <v>3757</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2447.1999999999998</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>17259.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="11">
@@ -3416,12 +3579,21 @@
       <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="11">
@@ -3448,12 +3620,21 @@
       <c r="I7" s="11">
         <v>53048</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>20139</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="11">
@@ -3480,12 +3661,21 @@
       <c r="I8" s="11">
         <v>114935475.8</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>108742912.59999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="K8" s="11">
+        <v>13846411.5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>82893559.339999989</v>
+      </c>
+      <c r="M8" s="11">
+        <v>169734421.09999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11">
@@ -3504,7 +3694,7 @@
         <v>17774019.439999998</v>
       </c>
       <c r="G9" s="11">
-        <v>13672968.6</v>
+        <v>13536398.6</v>
       </c>
       <c r="H9" s="11">
         <v>22005513.800000001</v>
@@ -3512,12 +3702,21 @@
       <c r="I9" s="11">
         <v>16966381.309999999</v>
       </c>
-      <c r="J9" s="18">
-        <v>15493886.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="J9" s="13">
+        <v>17086736.700000003</v>
+      </c>
+      <c r="K9" s="11">
+        <v>17312895.530000001</v>
+      </c>
+      <c r="L9" s="11">
+        <v>14326013.549999999</v>
+      </c>
+      <c r="M9" s="11">
+        <v>15420691.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="11">
@@ -3544,12 +3743,21 @@
       <c r="I10" s="11">
         <v>24131225</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="13">
         <v>67305109</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="K10" s="11">
+        <v>95393637</v>
+      </c>
+      <c r="L10" s="11">
+        <v>55327223</v>
+      </c>
+      <c r="M10" s="11">
+        <v>52704879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="11">
@@ -3576,12 +3784,21 @@
       <c r="I11" s="11">
         <v>56764570</v>
       </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>118296203</v>
+      </c>
+      <c r="M11" s="11">
+        <v>47497594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11">
@@ -3608,12 +3825,21 @@
       <c r="I12" s="11">
         <v>489744295</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="13">
         <v>390627290</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="K12" s="11">
+        <v>541389770</v>
+      </c>
+      <c r="L12" s="11">
+        <v>640490245</v>
+      </c>
+      <c r="M12" s="11">
+        <v>683133530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="11">
@@ -3640,12 +3866,21 @@
       <c r="I13" s="11">
         <v>395927440</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="13">
         <v>144953000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="K13" s="11">
+        <v>413454671.89999998</v>
+      </c>
+      <c r="L13" s="11">
+        <v>80574352.400000006</v>
+      </c>
+      <c r="M13" s="11">
+        <v>383621443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="11">
@@ -3672,12 +3907,21 @@
       <c r="I14" s="11">
         <v>1290313.22</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="13">
         <v>681774.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="K14" s="11">
+        <v>412169.80000000005</v>
+      </c>
+      <c r="L14" s="11">
+        <v>136353.84</v>
+      </c>
+      <c r="M14" s="11">
+        <v>212106.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="11">
@@ -3704,12 +3948,21 @@
       <c r="I15" s="11">
         <v>83485</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="13">
         <v>10064616</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>11076582</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="11">
@@ -3736,12 +3989,21 @@
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="11">
@@ -3768,12 +4030,21 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="11">
@@ -3798,14 +4069,23 @@
         <v>5585716.4099999946</v>
       </c>
       <c r="I18" s="11">
-        <v>5821885.7799999975</v>
-      </c>
-      <c r="J18" s="18">
-        <v>6388476.5999999959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+        <v>5822301.7799999975</v>
+      </c>
+      <c r="J18" s="13">
+        <v>6389383.0499999961</v>
+      </c>
+      <c r="K18" s="11">
+        <v>31091548.48</v>
+      </c>
+      <c r="L18" s="11">
+        <v>37568529.280000061</v>
+      </c>
+      <c r="M18" s="11">
+        <v>5304215.4099999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="11">
@@ -3832,12 +4112,21 @@
       <c r="I19" s="11">
         <v>485609.47</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="13">
         <v>13005039.800000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="K19" s="11">
+        <v>3409327.85</v>
+      </c>
+      <c r="L19" s="11">
+        <v>25115773.020000003</v>
+      </c>
+      <c r="M19" s="11">
+        <v>42973754.560000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="11">
@@ -3864,1163 +4153,1620 @@
       <c r="I20" s="11">
         <v>15378137.429999998</v>
       </c>
-      <c r="J20" s="18">
-        <v>11785338.019999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="J20" s="13">
+        <v>11785425.019999992</v>
+      </c>
+      <c r="K20" s="11">
+        <v>15943142.809999999</v>
+      </c>
+      <c r="L20" s="11">
+        <v>16171507.620000003</v>
+      </c>
+      <c r="M20" s="11">
+        <v>16353153.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>65084</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B22" s="11">
         <v>34385654.140000001</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>51719318.479999997</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>56638175.200000003</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>19495691.68</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>38718883</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>28758036.210000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>67676480.719999999</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>11032152.609999999</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="13">
         <v>16629291</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="K22" s="11">
+        <v>32283785</v>
+      </c>
+      <c r="L22" s="11">
+        <v>21513910</v>
+      </c>
+      <c r="M22" s="11">
+        <v>15880286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B23" s="11">
         <v>662133750.65999997</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>612743529.62000024</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>426464208.81</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>552146289.67000031</v>
       </c>
-      <c r="F22" s="11">
-        <v>624764627.25000012</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="F23" s="11">
+        <v>624764627.25000024</v>
+      </c>
+      <c r="G23" s="11">
         <v>416830944.04999989</v>
       </c>
-      <c r="H22" s="11">
-        <v>558538531.59000015</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H23" s="11">
+        <v>558512133.59000015</v>
+      </c>
+      <c r="I23" s="11">
         <v>520676712.6499998</v>
       </c>
-      <c r="J22" s="18">
-        <v>365773198.76999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="J23" s="13">
+        <v>366110497.36999995</v>
+      </c>
+      <c r="K23" s="11">
+        <v>491530342.13000005</v>
+      </c>
+      <c r="L23" s="11">
+        <v>396926269.73999995</v>
+      </c>
+      <c r="M23" s="11">
+        <v>474157099.31000012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B24" s="11">
         <v>103810202</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="11">
         <v>118823340</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>102649308.5</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>57706637</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>94585162</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>114899418</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <v>62079710</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <v>171279922</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J24" s="13">
         <v>44088801</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="K24" s="11">
+        <v>121134577</v>
+      </c>
+      <c r="L24" s="11">
+        <v>61662064</v>
+      </c>
+      <c r="M24" s="11">
+        <v>119657000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B25" s="11">
         <v>58678572.299999997</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>42468654.539999984</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>53168778.76000002</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>51332966.000000037</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>56465608.699999973</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>47244284.859999947</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>53429608.040000081</v>
       </c>
-      <c r="I24" s="11">
-        <v>76523489.010000095</v>
-      </c>
-      <c r="J24" s="18">
-        <v>74380804.800000101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="I25" s="11">
+        <v>76524378.76000008</v>
+      </c>
+      <c r="J25" s="13">
+        <v>74391023.340000167</v>
+      </c>
+      <c r="K25" s="11">
+        <v>78824565.609999999</v>
+      </c>
+      <c r="L25" s="11">
+        <v>76333896.900000036</v>
+      </c>
+      <c r="M25" s="11">
+        <v>64515623.759999976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>51737386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B27" s="11">
         <v>248165000</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C27" s="11">
         <v>81992000</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D27" s="11">
         <v>100087350</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E27" s="11">
         <v>94666500</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F27" s="11">
         <v>337562411</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G27" s="11">
         <v>310296903</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H27" s="11">
         <v>222215000</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I27" s="11">
         <v>390941208</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J27" s="13">
         <v>183330910</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="K27" s="11">
+        <v>290110797</v>
+      </c>
+      <c r="L27" s="11">
+        <v>130686000</v>
+      </c>
+      <c r="M27" s="11">
+        <v>326276650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B28" s="11">
         <v>176027957</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C28" s="11">
         <v>342526864</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="11">
         <v>530538625.44999999</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E28" s="11">
         <v>630593070.29999995</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F28" s="11">
         <v>382968323</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G28" s="11">
         <v>344109537</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H28" s="11">
         <v>750369986</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I28" s="11">
         <v>554298451</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J28" s="13">
         <v>560515112</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="K28" s="11">
+        <v>760445110</v>
+      </c>
+      <c r="L28" s="11">
+        <v>352005116</v>
+      </c>
+      <c r="M28" s="11">
+        <v>548555021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B29" s="11">
         <v>1236575.1299999999</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C29" s="11">
         <v>2226955.9099999997</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D29" s="11">
         <v>1686088.67</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E29" s="11">
         <v>793010.04</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F29" s="11">
         <v>824366.69</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G29" s="11">
         <v>1373951.93</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H29" s="11">
         <v>1204742.56</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I29" s="11">
         <v>1841829.85</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J29" s="13">
         <v>1474160.94</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="K29" s="11">
+        <v>1810066.5099999998</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1634756.46</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1781211.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B30" s="11">
         <v>42381409.799999997</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C30" s="11">
         <v>36987150</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>22413034.18</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>27410822.300000001</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F30" s="11">
         <v>23298104.540000007</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <v>47755904.990000002</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <v>30450840.749999996</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I30" s="11">
         <v>21178547.75</v>
       </c>
-      <c r="J28" s="18">
-        <v>23425044.879999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="J30" s="13">
+        <v>24127284.339999996</v>
+      </c>
+      <c r="K30" s="11">
+        <v>26764547.200000003</v>
+      </c>
+      <c r="L30" s="11">
+        <v>24535732.68</v>
+      </c>
+      <c r="M30" s="11">
+        <v>16263016.369999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B31" s="11">
         <v>3164791.8399999994</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C31" s="11">
         <v>2478739.4500000002</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>1781433.4600000002</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E31" s="11">
         <v>862440</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F31" s="11">
         <v>2295441.59</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G31" s="11">
         <v>3480314.37</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H31" s="11">
         <v>4013553.67</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I31" s="11">
         <v>2345187.23</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J31" s="13">
         <v>1926417.54</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="K31" s="11">
+        <v>3242756.4000000004</v>
+      </c>
+      <c r="L31" s="11">
+        <v>3498087.6</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2902523.9999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
         <v>9575.2800000000007</v>
       </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B33" s="11">
         <v>327368975.31000006</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C33" s="11">
         <v>187074602.05000004</v>
       </c>
-      <c r="D31" s="11">
-        <v>301637938.27999997</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D33" s="11">
+        <v>301593218.27999997</v>
+      </c>
+      <c r="E33" s="11">
         <v>253955452.58000004</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>375001330.70999992</v>
       </c>
-      <c r="G31" s="11">
-        <v>299382396.24000001</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="G33" s="11">
+        <v>299359116.24000001</v>
+      </c>
+      <c r="H33" s="11">
         <v>318624637.49999994</v>
       </c>
-      <c r="I31" s="11">
-        <v>275408078.94999993</v>
-      </c>
-      <c r="J31" s="18">
-        <v>325357110.92999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="I33" s="11">
+        <v>275491388.44999993</v>
+      </c>
+      <c r="J33" s="13">
+        <v>327138403.54999995</v>
+      </c>
+      <c r="K33" s="11">
+        <v>265722612.92999995</v>
+      </c>
+      <c r="L33" s="11">
+        <v>312650256.87000006</v>
+      </c>
+      <c r="M33" s="11">
+        <v>294459248.76999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B34" s="11">
         <v>128902360</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C34" s="11">
         <v>104692860</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>107169860</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E34" s="11">
         <v>127647390</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F34" s="11">
         <v>57323960</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G34" s="11">
         <v>211850090</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H34" s="11">
         <v>95609020</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I34" s="11">
         <v>92739160</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J34" s="13">
         <v>117483170</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="K34" s="11">
+        <v>118809120</v>
+      </c>
+      <c r="L34" s="11">
+        <v>103690880</v>
+      </c>
+      <c r="M34" s="11">
+        <v>116305870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B35" s="11">
         <v>15</v>
       </c>
-      <c r="C33" s="11">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B36" s="11">
         <v>34610</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C36" s="11">
         <v>22222.21</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D36" s="11">
         <v>233281.7</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E36" s="11">
         <v>4003</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F36" s="11">
         <v>158130</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G36" s="11">
         <v>122180.25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H36" s="11">
         <v>36043.26</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I36" s="11">
         <v>10156.799999999999</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J36" s="13">
         <v>43029228</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="K36" s="11">
+        <v>8085</v>
+      </c>
+      <c r="L36" s="11">
+        <v>83178721</v>
+      </c>
+      <c r="M36" s="11">
+        <v>22118556.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B37" s="11">
         <v>69017200</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C37" s="11">
         <v>125950100</v>
       </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
         <v>68737600</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F37" s="11">
         <v>50165700</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G37" s="11">
         <v>74899800</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H37" s="11">
         <v>32719600</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I37" s="11">
         <v>46035443</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J37" s="13">
         <v>67035400</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="K37" s="11">
+        <v>66516800</v>
+      </c>
+      <c r="L37" s="11">
+        <v>61751900</v>
+      </c>
+      <c r="M37" s="11">
+        <v>80218400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B38" s="11">
         <v>2457212.0999999996</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C38" s="11">
         <v>2598282.87</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D38" s="11">
         <v>2360353.2399999998</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E38" s="11">
         <v>2254196.62</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F38" s="11">
         <v>2278035.7200000002</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G38" s="11">
         <v>4130641.73</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H38" s="11">
         <v>4639182.09</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I38" s="11">
         <v>3809957.36</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J38" s="13">
         <v>3421161.8400000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="K38" s="11">
+        <v>2757201.3</v>
+      </c>
+      <c r="L38" s="11">
+        <v>3669101.88</v>
+      </c>
+      <c r="M38" s="11">
+        <v>3944107.1100000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B39" s="11">
         <v>550</v>
       </c>
-      <c r="C37" s="11">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>2985000</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B40" s="11">
         <v>10478842.790000001</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C40" s="11">
         <v>1629353.0299999996</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D40" s="11">
         <v>5799068.8800000008</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E40" s="11">
         <v>5284025.7699999996</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F40" s="11">
         <v>114037.8</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G40" s="11">
         <v>1311675.46</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H40" s="11">
         <v>1023882.6799999999</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I40" s="11">
         <v>801840.11</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J40" s="13">
         <v>23466410.140000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="K40" s="11">
+        <v>11637532.489999996</v>
+      </c>
+      <c r="L40" s="11">
+        <v>7876284.7999999998</v>
+      </c>
+      <c r="M40" s="11">
+        <v>11224448.270000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B41" s="11">
         <v>762611080</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C41" s="11">
         <v>601120130</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D41" s="11">
         <v>479780770</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E41" s="11">
         <v>182295100</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F41" s="11">
         <v>161132600</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G41" s="11">
         <v>348890190</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H41" s="11">
         <v>198978900</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I41" s="11">
         <v>213313910</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J41" s="13">
         <v>285955980</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="K41" s="11">
+        <v>215560500</v>
+      </c>
+      <c r="L41" s="11">
+        <v>129561090</v>
+      </c>
+      <c r="M41" s="11">
+        <v>230323800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B42" s="11">
         <v>450516000</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C42" s="11">
         <v>385378000</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D42" s="11">
         <v>386407000</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E42" s="11">
         <v>280098000</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F42" s="11">
         <v>301150000</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G42" s="11">
         <v>499341000</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H42" s="11">
         <v>194344000</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I42" s="11">
         <v>386418000</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J42" s="13">
         <v>234988000</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="K42" s="11">
+        <v>264273000</v>
+      </c>
+      <c r="L42" s="11">
+        <v>349910000</v>
+      </c>
+      <c r="M42" s="11">
+        <v>451532000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B43" s="11">
         <v>1990</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C43" s="11">
         <v>5000000</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D43" s="11">
         <v>1107.24</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E43" s="11">
         <v>6364</v>
       </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
         <v>1050</v>
       </c>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>8500000</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B44" s="11">
         <v>9836214.7200000007</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C44" s="11">
         <v>11738875.680000005</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D44" s="11">
         <v>9566397.1800000034</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E44" s="11">
         <v>5424288.0399999991</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F44" s="11">
         <v>5640100.6999999993</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G44" s="11">
         <v>5602923.9699999988</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H44" s="11">
         <v>6276201.3799999999</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I44" s="11">
         <v>4669264.5600000005</v>
       </c>
-      <c r="J42" s="18">
-        <v>6872854.5700000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="J44" s="13">
+        <v>6873120.5700000003</v>
+      </c>
+      <c r="K44" s="11">
+        <v>13054678.940000001</v>
+      </c>
+      <c r="L44" s="11">
+        <v>12047782.170000002</v>
+      </c>
+      <c r="M44" s="11">
+        <v>15226784.580000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B45" s="11">
         <v>263848850.72000003</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C45" s="11">
         <v>110883923.80000001</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D45" s="11">
         <v>223392660.91999993</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E45" s="11">
         <v>233828188.40000001</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F45" s="11">
         <v>202159799.39000002</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G45" s="11">
         <v>246026435.52999997</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H45" s="11">
         <v>250960275.13</v>
       </c>
-      <c r="I43" s="11">
-        <v>226581151.57999998</v>
-      </c>
-      <c r="J43" s="18">
-        <v>132363180.71999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="I45" s="11">
+        <v>226581178.35999998</v>
+      </c>
+      <c r="J45" s="13">
+        <v>132401352.36</v>
+      </c>
+      <c r="K45" s="11">
+        <v>208882970.01999998</v>
+      </c>
+      <c r="L45" s="11">
+        <v>282870969.22999996</v>
+      </c>
+      <c r="M45" s="11">
+        <v>206630395.14000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B46" s="11">
         <v>12014.4</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C46" s="11">
         <v>1485</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D46" s="11">
         <v>117265442</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E46" s="11">
         <v>54107</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F46" s="11">
         <v>51390552</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G46" s="11">
         <v>119799142</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H46" s="11">
         <v>60409544</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I46" s="11">
         <v>1473557</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J46" s="13">
         <v>61989864</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="K46" s="11">
+        <v>63909719</v>
+      </c>
+      <c r="L46" s="11">
+        <v>869</v>
+      </c>
+      <c r="M46" s="11">
+        <v>66429212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="11">
-        <v>0</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
         <v>4900</v>
       </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B48" s="11">
         <v>4142179.08</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C48" s="11">
         <v>4180477.19</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D48" s="11">
         <v>4341770.9000000004</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E48" s="11">
         <v>934766.22</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F48" s="11">
         <v>4164.26</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G48" s="11">
         <v>376753</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H48" s="11">
         <v>49857</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I48" s="11">
         <v>367</v>
       </c>
-      <c r="J46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>400435</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1211847</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1100930.1000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B49" s="11">
         <v>16177392.199999999</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C49" s="11">
         <v>18261.2</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D49" s="11">
         <v>18402542</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E49" s="11">
         <v>19198671</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F49" s="11">
         <v>30265.399999999998</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G49" s="11">
         <v>951492</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H49" s="11">
         <v>42921.42</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I49" s="11">
         <v>24494.6</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J49" s="13">
         <v>20429.400000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="K49" s="11">
+        <v>29893.8</v>
+      </c>
+      <c r="L49" s="11">
+        <v>18994536</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B50" s="11">
         <v>524843684.41000104</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C50" s="11">
         <v>374235692.03999919</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D50" s="11">
         <v>460815366.65000051</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E50" s="11">
         <v>487107584.71000004</v>
       </c>
-      <c r="F48" s="11">
-        <v>530887615.09000009</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F50" s="11">
+        <v>530862683.8900001</v>
+      </c>
+      <c r="G50" s="11">
         <v>474864979.64000022</v>
       </c>
-      <c r="H48" s="11">
-        <v>500304480.17000091</v>
-      </c>
-      <c r="I48" s="11">
-        <v>478772803.28000021</v>
-      </c>
-      <c r="J48" s="18">
-        <v>378807510.84000081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="H50" s="11">
+        <v>500280480.17000091</v>
+      </c>
+      <c r="I50" s="11">
+        <v>480330116.62000018</v>
+      </c>
+      <c r="J50" s="13">
+        <v>403047933.42000061</v>
+      </c>
+      <c r="K50" s="11">
+        <v>362209302.32000035</v>
+      </c>
+      <c r="L50" s="11">
+        <v>376382037.46999943</v>
+      </c>
+      <c r="M50" s="11">
+        <v>382213581.82000035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>1735.35</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B52" s="11">
         <v>6849</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C52" s="11">
         <v>34969.279999999999</v>
       </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
         <v>3200</v>
       </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B53" s="11">
         <v>130361945.83999993</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C53" s="11">
         <v>164168436.69000012</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D53" s="11">
         <v>211934754.22000003</v>
       </c>
-      <c r="E50" s="11">
-        <v>179212095.43000013</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="E53" s="11">
+        <v>179047345.43000013</v>
+      </c>
+      <c r="F53" s="11">
         <v>132784691.77999997</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G53" s="11">
         <v>208436031.06000003</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H53" s="11">
         <v>173833372.04000002</v>
       </c>
-      <c r="I50" s="11">
-        <v>194977198.22999987</v>
-      </c>
-      <c r="J50" s="18">
-        <v>171717734.61999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="I53" s="11">
+        <v>194984401.2299999</v>
+      </c>
+      <c r="J53" s="13">
+        <v>171909679.31999993</v>
+      </c>
+      <c r="K53" s="11">
+        <v>178036752.04999995</v>
+      </c>
+      <c r="L53" s="11">
+        <v>199686703.75000018</v>
+      </c>
+      <c r="M53" s="11">
+        <v>167354304.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B54" s="11">
         <v>19834335.439999998</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C54" s="11">
         <v>31309137.699999999</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D54" s="11">
         <v>11657545.49</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E54" s="11">
         <v>60764481.57</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F54" s="11">
         <v>12939096.75</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G54" s="11">
         <v>5770862</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H54" s="11">
         <v>17722799.800000001</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I54" s="11">
         <v>16425576.4</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J54" s="13">
         <v>1420125.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="K54" s="11">
+        <v>4741113.42</v>
+      </c>
+      <c r="L54" s="11">
+        <v>21709728.5</v>
+      </c>
+      <c r="M54" s="11">
+        <v>29452273.129999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B55" s="11">
         <v>72810124</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C55" s="11">
         <v>79257512.799999997</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D55" s="11">
         <v>63865518</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E55" s="11">
         <v>132859746</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F55" s="11">
         <v>112905616</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G55" s="11">
         <v>99048939</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H55" s="11">
         <v>99032363</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I55" s="11">
         <v>72127233</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J55" s="13">
         <v>66008819</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="K55" s="11">
+        <v>163978769</v>
+      </c>
+      <c r="L55" s="11">
+        <v>144751477</v>
+      </c>
+      <c r="M55" s="11">
+        <v>96242573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="11">
-        <v>298149321.65999955</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B56" s="15">
+        <v>298173321.65999949</v>
+      </c>
+      <c r="C56" s="15">
         <v>255946786.62000024</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D56" s="15">
         <v>316509580.83000028</v>
       </c>
-      <c r="E53" s="11">
-        <v>327724130.98999989</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="E56" s="15">
+        <v>327796758.86999995</v>
+      </c>
+      <c r="F56" s="15">
         <v>213669494.62000021</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G56" s="15">
         <v>201559933.22999996</v>
       </c>
-      <c r="H53" s="11">
-        <v>222730003.05000004</v>
-      </c>
-      <c r="I53" s="11">
-        <v>189151047.12999991</v>
-      </c>
-      <c r="J53" s="18">
-        <v>209013870.86000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="H56" s="15">
+        <v>222929303.05000004</v>
+      </c>
+      <c r="I56" s="15">
+        <v>189321987.39999989</v>
+      </c>
+      <c r="J56" s="16">
+        <v>220069248.35000002</v>
+      </c>
+      <c r="K56" s="11">
+        <v>217588717.91999978</v>
+      </c>
+      <c r="L56" s="11">
+        <v>157520827.29999986</v>
+      </c>
+      <c r="M56" s="11">
+        <v>216236712.89000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B57" s="11">
         <v>175085089.75</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C57" s="11">
         <v>85582655</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D57" s="11">
         <v>169452273</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E57" s="11">
         <v>242167405.5</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F57" s="11">
         <v>203538465.03</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G57" s="11">
         <v>116129680</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H57" s="11">
         <v>196465141</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I57" s="11">
         <v>148645140.91</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J57" s="13">
         <v>121810967</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="K57" s="11">
+        <v>255960454.03999999</v>
+      </c>
+      <c r="L57" s="11">
+        <v>211711106</v>
+      </c>
+      <c r="M57" s="11">
+        <v>227944170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="11">
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
         <v>3864.0000000000005</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D58" s="11">
         <v>1176.9999999999998</v>
       </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-      <c r="J55" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B59" s="11">
         <v>22797.4</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C59" s="11">
         <v>127689</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D59" s="11">
         <v>249293</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E59" s="11">
         <v>101825</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F59" s="11">
         <v>252667.9</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G59" s="11">
         <v>45080</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H59" s="11">
         <v>51359</v>
       </c>
-      <c r="I56" s="23">
-        <v>0</v>
-      </c>
-      <c r="J56" s="24">
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
         <v>35486</v>
       </c>
+      <c r="K59" s="15">
+        <v>19555</v>
+      </c>
+      <c r="L59" s="15">
+        <v>29060.6</v>
+      </c>
+      <c r="M59" s="15">
+        <v>18898</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
